--- a/Seminar/Rezultati.xlsx
+++ b/Seminar/Rezultati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shtef21\zavrsni\Seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D006CA-AE06-4D8F-97AE-DD3787C3338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5F659E-B2AC-4D76-ACF1-8F9AC9226A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2904" yWindow="-528" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,7 +780,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Seminar/Rezultati.xlsx
+++ b/Seminar/Rezultati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shtef21\zavrsni\Seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5F659E-B2AC-4D76-ACF1-8F9AC9226A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B15D1F-D67B-4A92-98E6-F2B59F0A0BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="-528" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,112 +67,388 @@
     <t>Razlika najboljeg i posljednjeg</t>
   </si>
   <si>
-    <t>MnistSimpleCNN 7x7
-Adam</t>
-  </si>
-  <si>
-    <t>MnistSimpleCNN 5x5
-Adam</t>
-  </si>
-  <si>
-    <t>ConvNet
-Adam</t>
-  </si>
-  <si>
     <t>Convnet
 SGD, lr_sched</t>
   </si>
   <si>
-    <t>MnistSimpleCNN 3x3
-Adam</t>
-  </si>
-  <si>
-    <t>MnistSimpleCNN 3x3
-Adam, dropout</t>
-  </si>
-  <si>
-    <t>MnistSimpleCNN 3x3
-SGD, lr_sched</t>
-  </si>
-  <si>
-    <t>MnistSimpleCNN 5x5
-Adam, dropout</t>
-  </si>
-  <si>
-    <t>MnistSimpleCNN 7x7
-Adam, dropout</t>
-  </si>
-  <si>
-    <t>ResidualNet
-Adam</t>
-  </si>
-  <si>
     <t>ResidualNet
 SGD, lr_sched</t>
   </si>
   <si>
-    <t>Resnet18
-Adam</t>
-  </si>
-  <si>
-    <t>Resnet18
-Adam, 224x224 img</t>
-  </si>
-  <si>
-    <t>Resnet18_dd 25%
-Adam</t>
-  </si>
-  <si>
-    <t>Resnet18_dd 25%
-Adam, 224x224 img</t>
-  </si>
-  <si>
-    <t>Resnet18_dd 25%
-SGD, lr_sched</t>
-  </si>
-  <si>
-    <t>Resnet18_dd 25%
-SGD, lr_sched, 224x224 img</t>
-  </si>
-  <si>
-    <t>Resnet18_dd 25%
-SGD, lr_sched, 224x224 img,
-10% dropout</t>
-  </si>
-  <si>
-    <t>Resnet18_dd 50%
-Adam</t>
-  </si>
-  <si>
-    <t>Resnet18_dd 50%
-Adam, 224x224 img</t>
-  </si>
-  <si>
-    <t>Resnet18_dd 75%
-Adam</t>
-  </si>
-  <si>
-    <t>Resnet18_dd 75%
-Adam, 224x224 img</t>
-  </si>
-  <si>
-    <t>Resnet18_dd 75%
-SGD, lr_sched</t>
-  </si>
-  <si>
     <t>Resnet18_dd 75%
 SGD, lr_sched, 224x224 img</t>
   </si>
   <si>
-    <t>SimpleNetv1
-Adam</t>
-  </si>
-  <si>
-    <t>SimpleNetv1
-Adam, 10% dropout</t>
-  </si>
-  <si>
     <t>Mreža \ Podatak</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet18_dd 25%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SGD, lr_sched, 224x224 img</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MnistSimpleCNN 3x3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ResidualNet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MnistSimpleCNN 7x7
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet18_dd 25%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SGD, lr_sched</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MnistSimpleCNN 5x5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet18_dd 25%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam, 224x224 img</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ConvNet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet18_dd 50%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam, 224x224 img</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet18_dd 75%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet18_dd 75%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam, 224x224 img</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet18_dd 50%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet18_dd 25%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MnistSimpleCNN 3x3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SGD, lr_sched</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MnistSimpleCNN 7x7
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam, dropout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet18
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet18_dd 75%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SGD, lr_sched</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet18
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam, 224x224 img</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet18_dd 25%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SGD, lr_sched, 224x224 img,
+10% dropout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MnistSimpleCNN 3x3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam, dropout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MnistSimpleCNN 5x5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam, dropout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SimpleNetv1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SimpleNetv1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adam, 10% dropout</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -780,7 +1056,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,7 +1089,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -839,7 +1115,7 @@
     </row>
     <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>42</v>
@@ -854,21 +1130,21 @@
         <v>95.6</v>
       </c>
       <c r="G4" s="2">
-        <f xml:space="preserve"> C4 - E4</f>
+        <f t="shared" ref="G4:G29" si="0" xml:space="preserve"> C4 - E4</f>
         <v>12</v>
       </c>
       <c r="H4" s="6">
-        <f xml:space="preserve"> F4 - D4</f>
+        <f t="shared" ref="H4:H29" si="1" xml:space="preserve"> F4 - D4</f>
         <v>4.9999999999997158E-2</v>
       </c>
       <c r="I4" s="4">
-        <f xml:space="preserve"> 1 - D4/F4</f>
+        <f t="shared" ref="I4:I29" si="2" xml:space="preserve"> 1 - D4/F4</f>
         <v>5.2301255230124966E-4</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>29</v>
@@ -883,21 +1159,21 @@
         <v>95.01</v>
       </c>
       <c r="G5" s="2">
-        <f xml:space="preserve"> C5 - E5</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H5" s="6">
-        <f xml:space="preserve"> F5 - D5</f>
+        <f t="shared" si="1"/>
         <v>0.45000000000000284</v>
       </c>
       <c r="I5" s="4">
-        <f xml:space="preserve"> 1 - D5/F5</f>
+        <f t="shared" si="2"/>
         <v>4.7363435427849598E-3</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>86</v>
@@ -912,21 +1188,21 @@
         <v>94.97</v>
       </c>
       <c r="G6" s="2">
-        <f xml:space="preserve"> C6 - E6</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="H6" s="6">
-        <f xml:space="preserve"> F6 - D6</f>
+        <f t="shared" si="1"/>
         <v>0.42999999999999261</v>
       </c>
       <c r="I6" s="4">
-        <f xml:space="preserve"> 1 - D6/F6</f>
+        <f t="shared" si="2"/>
         <v>4.527745603874811E-3</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>89</v>
@@ -941,21 +1217,21 @@
         <v>94.96</v>
       </c>
       <c r="G7" s="2">
-        <f xml:space="preserve"> C7 - E7</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="H7" s="6">
-        <f xml:space="preserve"> F7 - D7</f>
+        <f t="shared" si="1"/>
         <v>0.85999999999999943</v>
       </c>
       <c r="I7" s="4">
-        <f xml:space="preserve"> 1 - D7/F7</f>
+        <f t="shared" si="2"/>
         <v>9.0564448188711344E-3</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>19</v>
@@ -970,21 +1246,21 @@
         <v>94.88</v>
       </c>
       <c r="G8" s="2">
-        <f xml:space="preserve"> C8 - E8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H8" s="6">
-        <f xml:space="preserve"> F8 - D8</f>
+        <f t="shared" si="1"/>
         <v>7.9999999999998295E-2</v>
       </c>
       <c r="I8" s="4">
-        <f xml:space="preserve"> 1 - D8/F8</f>
+        <f t="shared" si="2"/>
         <v>8.4317032040470696E-4</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>29</v>
@@ -999,21 +1275,21 @@
         <v>94.86</v>
       </c>
       <c r="G9" s="2">
-        <f xml:space="preserve"> C9 - E9</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="H9" s="6">
-        <f xml:space="preserve"> F9 - D9</f>
+        <f t="shared" si="1"/>
         <v>0.51000000000000512</v>
       </c>
       <c r="I9" s="4">
-        <f xml:space="preserve"> 1 - D9/F9</f>
+        <f t="shared" si="2"/>
         <v>5.3763440860216116E-3</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>29</v>
@@ -1028,21 +1304,21 @@
         <v>94.86</v>
       </c>
       <c r="G10" s="2">
-        <f xml:space="preserve"> C10 - E10</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H10" s="6">
-        <f xml:space="preserve"> F10 - D10</f>
+        <f t="shared" si="1"/>
         <v>0.23999999999999488</v>
       </c>
       <c r="I10" s="4">
-        <f xml:space="preserve"> 1 - D10/F10</f>
+        <f t="shared" si="2"/>
         <v>2.5300442757747454E-3</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>79</v>
@@ -1057,21 +1333,21 @@
         <v>94.86</v>
       </c>
       <c r="G11" s="2">
-        <f xml:space="preserve"> C11 - E11</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H11" s="6">
-        <f xml:space="preserve"> F11 - D11</f>
+        <f t="shared" si="1"/>
         <v>0.17999999999999261</v>
       </c>
       <c r="I11" s="4">
-        <f xml:space="preserve"> 1 - D11/F11</f>
+        <f t="shared" si="2"/>
         <v>1.8975332068310591E-3</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>29</v>
@@ -1086,21 +1362,21 @@
         <v>94.81</v>
       </c>
       <c r="G12" s="2">
-        <f xml:space="preserve"> C12 - E12</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H12" s="6">
-        <f xml:space="preserve"> F12 - D12</f>
+        <f t="shared" si="1"/>
         <v>0.42000000000000171</v>
       </c>
       <c r="I12" s="4">
-        <f xml:space="preserve"> 1 - D12/F12</f>
+        <f t="shared" si="2"/>
         <v>4.4299124564919357E-3</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
         <v>39</v>
@@ -1115,21 +1391,21 @@
         <v>94.78</v>
       </c>
       <c r="G13" s="2">
-        <f xml:space="preserve"> C13 - E13</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H13" s="6">
-        <f xml:space="preserve"> F13 - D13</f>
+        <f t="shared" si="1"/>
         <v>0.28000000000000114</v>
       </c>
       <c r="I13" s="4">
-        <f xml:space="preserve"> 1 - D13/F13</f>
+        <f t="shared" si="2"/>
         <v>2.9542097488921559E-3</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
         <v>26</v>
@@ -1144,21 +1420,21 @@
         <v>94.78</v>
       </c>
       <c r="G14" s="2">
-        <f xml:space="preserve"> C14 - E14</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="H14" s="6">
-        <f xml:space="preserve"> F14 - D14</f>
+        <f t="shared" si="1"/>
         <v>0.23999999999999488</v>
       </c>
       <c r="I14" s="4">
-        <f xml:space="preserve"> 1 - D14/F14</f>
+        <f t="shared" si="2"/>
         <v>2.5321797847646099E-3</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>29</v>
@@ -1173,21 +1449,21 @@
         <v>94.73</v>
       </c>
       <c r="G15" s="2">
-        <f xml:space="preserve"> C15 - E15</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="H15" s="6">
-        <f xml:space="preserve"> F15 - D15</f>
+        <f t="shared" si="1"/>
         <v>4.0000000000006253E-2</v>
       </c>
       <c r="I15" s="4">
-        <f xml:space="preserve"> 1 - D15/F15</f>
+        <f t="shared" si="2"/>
         <v>4.2225271825191424E-4</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
         <v>39</v>
@@ -1202,21 +1478,21 @@
         <v>94.72</v>
       </c>
       <c r="G16" s="2">
-        <f xml:space="preserve"> C16 - E16</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H16" s="6">
-        <f xml:space="preserve"> F16 - D16</f>
+        <f t="shared" si="1"/>
         <v>0.40000000000000568</v>
       </c>
       <c r="I16" s="4">
-        <f xml:space="preserve"> 1 - D16/F16</f>
+        <f t="shared" si="2"/>
         <v>4.222972972973027E-3</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
         <v>29</v>
@@ -1231,21 +1507,21 @@
         <v>94.7</v>
       </c>
       <c r="G17" s="2">
-        <f xml:space="preserve"> C17 - E17</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="H17" s="6">
-        <f xml:space="preserve"> F17 - D17</f>
+        <f t="shared" si="1"/>
         <v>0.28000000000000114</v>
       </c>
       <c r="I17" s="4">
-        <f xml:space="preserve"> 1 - D17/F17</f>
+        <f t="shared" si="2"/>
         <v>2.9567053854276937E-3</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
         <v>29</v>
@@ -1260,21 +1536,21 @@
         <v>94.67</v>
       </c>
       <c r="G18" s="2">
-        <f xml:space="preserve"> C18 - E18</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H18" s="6">
-        <f xml:space="preserve"> F18 - D18</f>
+        <f t="shared" si="1"/>
         <v>0.48000000000000398</v>
       </c>
       <c r="I18" s="4">
-        <f xml:space="preserve"> 1 - D18/F18</f>
+        <f t="shared" si="2"/>
         <v>5.0702440054928299E-3</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
         <v>39</v>
@@ -1289,21 +1565,21 @@
         <v>94.63</v>
       </c>
       <c r="G19" s="2">
-        <f xml:space="preserve"> C19 - E19</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H19" s="6">
-        <f xml:space="preserve"> F19 - D19</f>
+        <f t="shared" si="1"/>
         <v>0.3399999999999892</v>
       </c>
       <c r="I19" s="4">
-        <f xml:space="preserve"> 1 - D19/F19</f>
+        <f t="shared" si="2"/>
         <v>3.5929409278240287E-3</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
         <v>14</v>
@@ -1318,21 +1594,21 @@
         <v>94.63</v>
       </c>
       <c r="G20" s="2">
-        <f xml:space="preserve"> C20 - E20</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H20" s="6">
-        <f xml:space="preserve"> F20 - D20</f>
+        <f t="shared" si="1"/>
         <v>7.9999999999998295E-2</v>
       </c>
       <c r="I20" s="4">
-        <f xml:space="preserve"> 1 - D20/F20</f>
+        <f t="shared" si="2"/>
         <v>8.4539786537041195E-4</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2">
         <v>29</v>
@@ -1347,21 +1623,21 @@
         <v>94.59</v>
       </c>
       <c r="G21" s="2">
-        <f xml:space="preserve"> C21 - E21</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H21" s="6">
-        <f xml:space="preserve"> F21 - D21</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000005116E-2</v>
       </c>
       <c r="I21" s="4">
-        <f xml:space="preserve"> 1 - D21/F21</f>
+        <f t="shared" si="2"/>
         <v>1.0571942065762396E-4</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C22" s="8">
         <v>24</v>
@@ -1376,21 +1652,21 @@
         <v>94.57</v>
       </c>
       <c r="G22" s="8">
-        <f xml:space="preserve"> C22 - E22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="10">
-        <f xml:space="preserve"> F22 - D22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="11">
-        <f xml:space="preserve"> 1 - D22/F22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2">
         <v>39</v>
@@ -1405,21 +1681,21 @@
         <v>94.54</v>
       </c>
       <c r="G23" s="2">
-        <f xml:space="preserve"> C23 - E23</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H23" s="6">
-        <f xml:space="preserve"> F23 - D23</f>
+        <f t="shared" si="1"/>
         <v>0.39000000000000057</v>
       </c>
       <c r="I23" s="4">
-        <f xml:space="preserve"> 1 - D23/F23</f>
+        <f t="shared" si="2"/>
         <v>4.1252379944997086E-3</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
         <v>39</v>
@@ -1434,21 +1710,21 @@
         <v>94.52</v>
       </c>
       <c r="G24" s="2">
-        <f xml:space="preserve"> C24 - E24</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H24" s="6">
-        <f xml:space="preserve"> F24 - D24</f>
+        <f t="shared" si="1"/>
         <v>0.42999999999999261</v>
       </c>
       <c r="I24" s="4">
-        <f xml:space="preserve"> 1 - D24/F24</f>
+        <f t="shared" si="2"/>
         <v>4.5493017350823894E-3</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
         <v>39</v>
@@ -1463,21 +1739,21 @@
         <v>94.51</v>
       </c>
       <c r="G25" s="2">
-        <f xml:space="preserve"> C25 - E25</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H25" s="6">
-        <f xml:space="preserve"> F25 - D25</f>
+        <f t="shared" si="1"/>
         <v>0.46000000000000796</v>
       </c>
       <c r="I25" s="4">
-        <f xml:space="preserve"> 1 - D25/F25</f>
+        <f t="shared" si="2"/>
         <v>4.8672098190668533E-3</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2">
         <v>45</v>
@@ -1492,21 +1768,21 @@
         <v>94.15</v>
       </c>
       <c r="G26" s="2">
-        <f xml:space="preserve"> C26 - E26</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="H26" s="6">
-        <f xml:space="preserve"> F26 - D26</f>
+        <f t="shared" si="1"/>
         <v>0.30000000000001137</v>
       </c>
       <c r="I26" s="4">
-        <f xml:space="preserve"> 1 - D26/F26</f>
+        <f t="shared" si="2"/>
         <v>3.1864046733935947E-3</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2">
         <v>24</v>
@@ -1521,21 +1797,21 @@
         <v>93.73</v>
       </c>
       <c r="G27" s="2">
-        <f xml:space="preserve"> C27 - E27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="6">
-        <f xml:space="preserve"> F27 - D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <f xml:space="preserve"> 1 - D27/F27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2">
         <v>24</v>
@@ -1550,21 +1826,21 @@
         <v>92.8</v>
       </c>
       <c r="G28" s="2">
-        <f xml:space="preserve"> C28 - E28</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H28" s="6">
-        <f xml:space="preserve"> F28 - D28</f>
+        <f t="shared" si="1"/>
         <v>7.9999999999998295E-2</v>
       </c>
       <c r="I28" s="4">
-        <f xml:space="preserve"> 1 - D28/F28</f>
+        <f t="shared" si="2"/>
         <v>8.6206896551721535E-4</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -1579,15 +1855,15 @@
         <v>83.81</v>
       </c>
       <c r="G29" s="2">
-        <f xml:space="preserve"> C29 - E29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="6">
-        <f xml:space="preserve"> F29 - D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="4">
-        <f xml:space="preserve"> 1 - D29/F29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
